--- a/DATA/ModelData.xlsx
+++ b/DATA/ModelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedb0\Documents\debt-trap\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99A1E03-3EF4-4BD2-9F92-690DF50885BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF5D49F-4A26-4B13-97A8-2EBAF740AB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{14C76DDB-03CE-42C6-8C31-48F9EBE2C784}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{14C76DDB-03CE-42C6-8C31-48F9EBE2C784}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="96">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,14 @@
     <t>lka_gdp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>growth_sri_trad_gdp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +570,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1284,13 +1303,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DBF44B-21FF-40E0-B536-52FF42DEFC39}">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1308,10 +1327,11 @@
     <col min="14" max="15" width="15.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="13"/>
+    <col min="18" max="18" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1363,8 +1383,11 @@
       <c r="Q1" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1960</v>
       </c>
@@ -1418,8 +1441,11 @@
         <f>I2/J2</f>
         <v>0.57762966282065609</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="27">
+        <v>6.9473684210528504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1961</v>
       </c>
@@ -1473,8 +1499,11 @@
         <f t="shared" ref="Q3:Q66" si="5">I3/J3</f>
         <v>0.57380308978738526</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="28">
+        <v>1.6404199475060499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>1962</v>
       </c>
@@ -1528,8 +1557,11 @@
         <f t="shared" si="5"/>
         <v>0.56657734470158327</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="28">
+        <v>-0.51646223369850797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>1963</v>
       </c>
@@ -1583,8 +1615,11 @@
         <f t="shared" si="5"/>
         <v>0.56947215672047979</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="28">
+        <v>1.456488447975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>1964</v>
       </c>
@@ -1638,8 +1673,11 @@
         <f t="shared" si="5"/>
         <v>0.57064471879286682</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="28">
+        <v>4.17958688145319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>1965</v>
       </c>
@@ -1693,8 +1731,11 @@
         <f t="shared" si="5"/>
         <v>0.55417035594120689</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="28">
+        <v>5.5686354793637598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>1966</v>
       </c>
@@ -1748,8 +1789,11 @@
         <f t="shared" si="5"/>
         <v>0.52714121111253365</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="28">
+        <v>7.2276215978773202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>1967</v>
       </c>
@@ -1803,8 +1847,11 @@
         <f t="shared" si="5"/>
         <v>0.52951105609632598</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="28">
+        <v>6.8113996342869001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1968</v>
       </c>
@@ -1858,8 +1905,11 @@
         <f t="shared" si="5"/>
         <v>0.54655838729893436</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="28">
+        <v>0.170627348438079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>1969</v>
       </c>
@@ -1913,8 +1963,11 @@
         <f t="shared" si="5"/>
         <v>0.53890057800672342</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="28">
+        <v>3.1869867957368898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>1970</v>
       </c>
@@ -1968,8 +2021,11 @@
         <f t="shared" si="5"/>
         <v>0.53697304768486531</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="28">
+        <v>5.3498409098301503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>1971</v>
       </c>
@@ -2023,8 +2079,11 @@
         <f t="shared" si="5"/>
         <v>0.53086176684845765</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="28">
+        <v>4.7306914823227402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>1972</v>
       </c>
@@ -2078,8 +2137,11 @@
         <f t="shared" si="5"/>
         <v>0.52709747041501298</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="28">
+        <v>5.1832376454914098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>1973</v>
       </c>
@@ -2133,8 +2195,11 @@
         <f t="shared" si="5"/>
         <v>0.52612161441356065</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="28">
+        <v>23.070084025084402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>1974</v>
       </c>
@@ -2188,8 +2253,11 @@
         <f t="shared" si="5"/>
         <v>0.52868266327665692</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="28">
+        <v>26.663034853748801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>1975</v>
       </c>
@@ -2243,8 +2311,11 @@
         <f t="shared" si="5"/>
         <v>0.50796434706744764</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="28">
+        <v>20.904509457399801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>1976</v>
       </c>
@@ -2303,8 +2374,11 @@
         <f t="shared" si="5"/>
         <v>0.50297628179558762</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="28">
+        <v>7.1583237311846801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>1977</v>
       </c>
@@ -2363,8 +2437,11 @@
         <f t="shared" si="5"/>
         <v>0.50128883190426576</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="28">
+        <v>10.132967687405401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>1978</v>
       </c>
@@ -2423,8 +2500,11 @@
         <f t="shared" si="5"/>
         <v>0.49319473272312775</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="28">
+        <v>6.1386926674274198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>1979</v>
       </c>
@@ -2483,8 +2563,11 @@
         <f t="shared" si="5"/>
         <v>0.49261985993894775</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="28">
+        <v>8.2670469761757204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>1980</v>
       </c>
@@ -2543,8 +2626,11 @@
         <f t="shared" si="5"/>
         <v>0.48850665516549313</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="28">
+        <v>11.9382309107087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>1981</v>
       </c>
@@ -2603,8 +2689,11 @@
         <f t="shared" si="5"/>
         <v>0.47596658471006065</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="28">
+        <v>11.8799135925283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>1982</v>
       </c>
@@ -2663,8 +2752,11 @@
         <f t="shared" si="5"/>
         <v>0.48505825844724348</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="28">
+        <v>5.9035287843585698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>1983</v>
       </c>
@@ -2723,8 +2815,11 @@
         <f t="shared" si="5"/>
         <v>0.47167434623079302</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="28">
+        <v>6.3620334998529904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>1984</v>
       </c>
@@ -2783,8 +2878,11 @@
         <f t="shared" si="5"/>
         <v>0.45148188908104314</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="28">
+        <v>6.0871667357371901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>1985</v>
       </c>
@@ -2843,8 +2941,11 @@
         <f t="shared" si="5"/>
         <v>0.45918836319275164</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="28">
+        <v>5.6148392179322002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>1986</v>
       </c>
@@ -2903,8 +3004,11 @@
         <f t="shared" si="5"/>
         <v>0.46188380897592379</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="28">
+        <v>3.5064142475820299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>1987</v>
       </c>
@@ -2963,8 +3067,11 @@
         <f t="shared" si="5"/>
         <v>0.45265590528211508</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="28">
+        <v>4.6812185462021398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>1988</v>
       </c>
@@ -3023,8 +3130,11 @@
         <f t="shared" si="5"/>
         <v>0.44848524331903539</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="28">
+        <v>8.8379370181777794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>1989</v>
       </c>
@@ -3083,8 +3193,11 @@
         <f t="shared" si="5"/>
         <v>0.45121696146126311</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="28">
+        <v>7.8442647374003798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>1990</v>
       </c>
@@ -3143,8 +3256,11 @@
         <f t="shared" si="5"/>
         <v>0.45411318277034823</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="28">
+        <v>9.0521315527977997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>1991</v>
       </c>
@@ -3203,8 +3319,11 @@
         <f t="shared" si="5"/>
         <v>0.45773368606702036</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="28">
+        <v>11.791270335141601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>1992</v>
       </c>
@@ -3263,8 +3382,11 @@
         <f t="shared" si="5"/>
         <v>0.45955001919290633</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="28">
+        <v>9.5090414619014592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>1993</v>
       </c>
@@ -3323,8 +3445,11 @@
         <f t="shared" si="5"/>
         <v>0.44790623935529073</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="28">
+        <v>9.9736647602921007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>1994</v>
       </c>
@@ -3383,8 +3508,11 @@
         <f t="shared" si="5"/>
         <v>0.45123282289648925</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="28">
+        <v>12.3681943936948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>1995</v>
       </c>
@@ -3443,8 +3571,11 @@
         <f t="shared" si="5"/>
         <v>0.44745171555938573</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="28">
+        <v>12.3435785170513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>1996</v>
       </c>
@@ -3503,8 +3634,11 @@
         <f t="shared" si="5"/>
         <v>0.45190180235292149</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="28">
+        <v>10.3738085885002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>1997</v>
       </c>
@@ -3563,8 +3697,11 @@
         <f t="shared" si="5"/>
         <v>0.46041530083448878</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="28">
+        <v>11.3754928865122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>1998</v>
       </c>
@@ -3623,8 +3760,11 @@
         <f t="shared" si="5"/>
         <v>0.47356157773814117</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="28">
+        <v>6.22800415424547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>1999</v>
       </c>
@@ -3683,8 +3823,11 @@
         <f t="shared" si="5"/>
         <v>0.47272458726392963</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="28">
+        <v>4.14263718082168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>2000</v>
       </c>
@@ -3743,8 +3886,11 @@
         <f t="shared" si="5"/>
         <v>0.4316571668002474</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="28">
+        <v>4.3666645129168096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>2001</v>
       </c>
@@ -3803,8 +3949,11 @@
         <f t="shared" si="5"/>
         <v>0.42176000338837855</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="28">
+        <v>3.1482614459061602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>2002</v>
       </c>
@@ -3863,8 +4012,11 @@
         <f t="shared" si="5"/>
         <v>0.4073622679095355</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" s="28">
+        <v>3.2903447261315599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>2003</v>
       </c>
@@ -3923,8 +4075,11 @@
         <f t="shared" si="5"/>
         <v>0.40843794161783176</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="28">
+        <v>2.91413470059477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>2004</v>
       </c>
@@ -3983,8 +4138,11 @@
         <f t="shared" si="5"/>
         <v>0.42676923944887929</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="28">
+        <v>7.4446246934273796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>2005</v>
       </c>
@@ -4043,8 +4201,11 @@
         <f t="shared" si="5"/>
         <v>0.42883578527331728</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="28">
+        <v>9.0633273703042008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>2006</v>
       </c>
@@ -4103,8 +4264,11 @@
         <f t="shared" si="5"/>
         <v>0.41278443944616494</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="28">
+        <v>7.9210844005878798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>2007</v>
       </c>
@@ -4163,8 +4327,11 @@
         <f t="shared" si="5"/>
         <v>0.41781638665657422</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="28">
+        <v>7.59868441050775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>2008</v>
       </c>
@@ -4223,8 +4390,11 @@
         <f t="shared" si="5"/>
         <v>0.44237665556283801</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="28">
+        <v>20.286121092955401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>2009</v>
       </c>
@@ -4283,8 +4453,11 @@
         <f t="shared" si="5"/>
         <v>0.41908824188294491</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="28">
+        <v>13.647765063976101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>2010</v>
       </c>
@@ -4343,8 +4516,11 @@
         <f t="shared" si="5"/>
         <v>0.43001074325976824</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="28">
+        <v>12.938870563489001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>2011</v>
       </c>
@@ -4403,8 +4579,11 @@
         <f t="shared" si="5"/>
         <v>0.45630970801753529</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="28">
+        <v>11.9160927116277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>2012</v>
       </c>
@@ -4463,8 +4642,11 @@
         <f t="shared" si="5"/>
         <v>0.45009058937969221</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="28">
+        <v>9.6823518605567997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>2013</v>
       </c>
@@ -4523,8 +4705,11 @@
         <f t="shared" si="5"/>
         <v>0.44049052873892008</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="28">
+        <v>7.6921561189957002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>2014</v>
       </c>
@@ -4583,8 +4768,11 @@
         <f t="shared" si="5"/>
         <v>0.43769702216692441</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="28">
+        <v>7.1893840284702497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>2015</v>
       </c>
@@ -4643,8 +4831,11 @@
         <f t="shared" si="5"/>
         <v>0.42908057421526696</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" s="28">
+        <v>2.5293281725422601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>2016</v>
       </c>
@@ -4703,8 +4894,11 @@
         <f t="shared" si="5"/>
         <v>0.4047844817589118</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" s="28">
+        <v>3.7651191635658399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>2017</v>
       </c>
@@ -4763,8 +4957,11 @@
         <f t="shared" si="5"/>
         <v>0.40062530625208637</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" s="28">
+        <v>4.0853736803260396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>2018</v>
       </c>
@@ -4823,8 +5020,11 @@
         <f t="shared" si="5"/>
         <v>0.40240286952143933</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" s="28">
+        <v>5.0780572586891699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>2019</v>
       </c>
@@ -4883,8 +5083,11 @@
         <f t="shared" si="5"/>
         <v>0.40241765903736987</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" s="28">
+        <v>10.5783618004555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>2020</v>
       </c>
@@ -4943,8 +5146,11 @@
         <f t="shared" si="5"/>
         <v>0.40443596099478246</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="18" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R62" s="28">
+        <v>9.7399931389813101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="18" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="21">
         <v>2021</v>
       </c>
@@ -5003,8 +5209,11 @@
         <f t="shared" si="5"/>
         <v>0.41469940729106997</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" s="28">
+        <v>9.4962105612497894</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>1960</v>
       </c>
@@ -5058,8 +5267,11 @@
         <f t="shared" si="5"/>
         <v>0.52791356015496949</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" s="29">
+        <v>-1.544676806092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>1961</v>
       </c>
@@ -5113,8 +5325,11 @@
         <f t="shared" si="5"/>
         <v>0.53464484994909112</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" s="28">
+        <v>1.1344436397999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>1962</v>
       </c>
@@ -5168,8 +5383,11 @@
         <f t="shared" si="5"/>
         <v>0.52178739558106169</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" s="28">
+        <v>1.50357995251549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>1963</v>
       </c>
@@ -5223,8 +5441,11 @@
         <f t="shared" ref="Q67:Q125" si="14">I67/J67</f>
         <v>0.53042508237605002</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" s="28">
+        <v>2.27290539996214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>1964</v>
       </c>
@@ -5278,8 +5499,11 @@
         <f t="shared" si="14"/>
         <v>0.51353751174130635</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" s="28">
+        <v>3.1956471760459202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>1965</v>
       </c>
@@ -5333,8 +5557,11 @@
         <f t="shared" si="14"/>
         <v>0.50117413417862422</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" s="28">
+        <v>0.22278330625397599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>1966</v>
       </c>
@@ -5388,8 +5615,11 @@
         <f t="shared" si="14"/>
         <v>0.49000979565791053</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="28">
+        <v>-0.15560165997381201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>1967</v>
       </c>
@@ -5443,8 +5673,11 @@
         <f t="shared" si="14"/>
         <v>0.50070950975987594</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" s="28">
+        <v>2.1892393320351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>1968</v>
       </c>
@@ -5498,8 +5731,11 @@
         <f t="shared" si="14"/>
         <v>0.53085098246874407</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" s="28">
+        <v>5.8605664489858897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>1969</v>
       </c>
@@ -5553,8 +5789,11 @@
         <f t="shared" si="14"/>
         <v>0.52598810296707976</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" s="28">
+        <v>7.45695273372574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>1970</v>
       </c>
@@ -5608,8 +5847,11 @@
         <f t="shared" si="14"/>
         <v>0.52949031874268127</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" s="28">
+        <v>5.8669560776596699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>1971</v>
       </c>
@@ -5663,8 +5905,11 @@
         <f t="shared" si="14"/>
         <v>0.525963798128114</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" s="28">
+        <v>2.6653802085999501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>1972</v>
       </c>
@@ -5718,8 +5963,11 @@
         <f t="shared" si="14"/>
         <v>0.51298581839050295</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" s="28">
+        <v>6.3494860501360897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>1973</v>
       </c>
@@ -5773,8 +6021,11 @@
         <f t="shared" si="14"/>
         <v>0.5339830675179309</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77" s="28">
+        <v>9.6266431017111707</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>1974</v>
       </c>
@@ -5828,8 +6079,11 @@
         <f t="shared" si="14"/>
         <v>0.58870500180051422</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78" s="28">
+        <v>12.3028867952473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>1975</v>
       </c>
@@ -5888,8 +6142,11 @@
         <f t="shared" si="14"/>
         <v>0.57336991626218248</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R79" s="28">
+        <v>6.6259925532098398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>1976</v>
       </c>
@@ -5948,8 +6205,11 @@
         <f t="shared" si="14"/>
         <v>0.56698051922987847</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80" s="28">
+        <v>1.3295186805822801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>1977</v>
       </c>
@@ -6008,8 +6268,11 @@
         <f t="shared" si="14"/>
         <v>0.59921315549207488</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R81" s="28">
+        <v>1.22487958802843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>1978</v>
       </c>
@@ -6068,8 +6331,11 @@
         <f t="shared" si="14"/>
         <v>0.58320082866518208</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R82" s="28">
+        <v>12.141597276465999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>1979</v>
       </c>
@@ -6128,8 +6394,11 @@
         <f t="shared" si="14"/>
         <v>0.5576210344360244</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83" s="28">
+        <v>10.731921430872999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>1980</v>
       </c>
@@ -6188,8 +6457,11 @@
         <f t="shared" si="14"/>
         <v>0.57742898245824892</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84" s="28">
+        <v>26.145410101446501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>1981</v>
       </c>
@@ -6248,8 +6520,11 @@
         <f t="shared" si="14"/>
         <v>0.56214551165225479</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R85" s="28">
+        <v>17.968995496010098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>1982</v>
       </c>
@@ -6308,8 +6583,11 @@
         <f t="shared" si="14"/>
         <v>0.53116853847316459</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R86" s="28">
+        <v>10.8257491675687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>1983</v>
       </c>
@@ -6368,8 +6646,11 @@
         <f t="shared" si="14"/>
         <v>0.55015851362242019</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R87" s="28">
+        <v>13.9643880065</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>1984</v>
       </c>
@@ -6428,8 +6709,11 @@
         <f t="shared" si="14"/>
         <v>0.55353440644959873</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R88" s="28">
+        <v>16.638253747921699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>1985</v>
       </c>
@@ -6488,8 +6772,11 @@
         <f t="shared" si="14"/>
         <v>0.54605100280831387</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R89" s="28">
+        <v>1.48118012235432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>1986</v>
       </c>
@@ -6548,8 +6835,11 @@
         <f t="shared" si="14"/>
         <v>0.54410475307286776</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R90" s="28">
+        <v>7.9763619357062598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>1987</v>
       </c>
@@ -6608,8 +6898,11 @@
         <f t="shared" si="14"/>
         <v>0.55083133167448695</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R91" s="28">
+        <v>7.7171656055926796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
         <v>1988</v>
       </c>
@@ -6668,8 +6961,11 @@
         <f t="shared" si="14"/>
         <v>0.53715724629474526</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R92" s="28">
+        <v>13.991548900207601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
         <v>1989</v>
       </c>
@@ -6728,8 +7024,11 @@
         <f t="shared" si="14"/>
         <v>0.53056988863039944</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R93" s="28">
+        <v>11.5675360890558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
         <v>1990</v>
       </c>
@@ -6788,8 +7087,11 @@
         <f t="shared" si="14"/>
         <v>0.53012602860614588</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R94" s="28">
+        <v>21.495252052759</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>1991</v>
       </c>
@@ -6848,8 +7150,11 @@
         <f t="shared" si="14"/>
         <v>0.52983563335079009</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R95" s="28">
+        <v>12.185630721438899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
         <v>1992</v>
       </c>
@@ -6908,8 +7213,11 @@
         <f t="shared" si="14"/>
         <v>0.52011902733003623</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R96" s="28">
+        <v>11.383437051220501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>1993</v>
       </c>
@@ -6968,8 +7276,11 @@
         <f t="shared" si="14"/>
         <v>0.50730249597149568</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R97" s="28">
+        <v>11.7467370174947</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>1994</v>
       </c>
@@ -7028,8 +7339,11 @@
         <f t="shared" si="14"/>
         <v>0.50378029715896155</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R98" s="28">
+        <v>8.44871248698343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
         <v>1995</v>
       </c>
@@ -7088,8 +7402,11 @@
         <f t="shared" si="14"/>
         <v>0.4982410196893553</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R99" s="28">
+        <v>7.6748487344980996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>1996</v>
       </c>
@@ -7148,8 +7465,11 @@
         <f t="shared" si="14"/>
         <v>0.4911329083173635</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R100" s="28">
+        <v>15.9358310447214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>1997</v>
       </c>
@@ -7208,8 +7528,11 @@
         <f t="shared" si="14"/>
         <v>0.48942263240897171</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R101" s="28">
+        <v>9.5736962640516907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
         <v>1998</v>
       </c>
@@ -7268,8 +7591,11 @@
         <f t="shared" si="14"/>
         <v>0.48781205468444522</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R102" s="28">
+        <v>9.3642430068323002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
         <v>1999</v>
       </c>
@@ -7328,8 +7654,11 @@
         <f t="shared" si="14"/>
         <v>0.48089804677010012</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R103" s="28">
+        <v>4.6917056304843401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
         <v>2000</v>
       </c>
@@ -7388,8 +7717,11 @@
         <f t="shared" si="14"/>
         <v>0.47245391838337952</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R104" s="28">
+        <v>6.1762759101204399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
         <v>2001</v>
       </c>
@@ -7448,8 +7780,11 @@
         <f t="shared" si="14"/>
         <v>0.46887199619439579</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R105" s="28">
+        <v>14.1584557991201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
         <v>2002</v>
       </c>
@@ -7508,8 +7843,11 @@
         <f t="shared" si="14"/>
         <v>0.42289935987761412</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R106" s="28">
+        <v>9.55103167007249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
         <v>2003</v>
       </c>
@@ -7568,8 +7906,11 @@
         <f t="shared" si="14"/>
         <v>0.41655085301909278</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R107" s="28">
+        <v>6.3146378705117598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
         <v>2004</v>
       </c>
@@ -7628,8 +7969,11 @@
         <f t="shared" si="14"/>
         <v>0.41161905663797482</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R108" s="28">
+        <v>7.5759258299585399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
         <v>2005</v>
       </c>
@@ -7688,8 +8032,11 @@
         <f t="shared" si="14"/>
         <v>0.42007565287090337</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R109" s="28">
+        <v>11.639686097111801</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
         <v>2006</v>
       </c>
@@ -7748,8 +8095,11 @@
         <f t="shared" si="14"/>
         <v>0.41978575414812108</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R110" s="28">
+        <v>10.020183605703499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
         <v>2007</v>
       </c>
@@ -7808,8 +8158,11 @@
         <f t="shared" si="14"/>
         <v>0.41602984110377889</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R111" s="28">
+        <v>15.8421114924843</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>2008</v>
       </c>
@@ -7868,8 +8221,11 @@
         <f t="shared" si="14"/>
         <v>0.42750395517065171</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R112" s="28">
+        <v>22.5644955300126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>2009</v>
       </c>
@@ -7928,8 +8284,11 @@
         <f t="shared" si="14"/>
         <v>0.42363410035338095</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R113" s="28">
+        <v>3.4649632210607502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>2010</v>
       </c>
@@ -7988,8 +8347,11 @@
         <f t="shared" si="14"/>
         <v>0.36831535304884538</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R114" s="28">
+        <v>6.2176488930461904</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>2011</v>
       </c>
@@ -8048,8 +8410,11 @@
         <f t="shared" si="14"/>
         <v>0.38606309114449039</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R115" s="28">
+        <v>6.7167684358853803</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>2012</v>
       </c>
@@ -8108,8 +8473,11 @@
         <f t="shared" si="14"/>
         <v>0.38880142677602397</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R116" s="28">
+        <v>7.5429137323943802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="20">
         <v>2013</v>
       </c>
@@ -8168,8 +8536,11 @@
         <f t="shared" si="14"/>
         <v>0.38720284844269237</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R117" s="28">
+        <v>6.9084503482844299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>2014</v>
       </c>
@@ -8228,8 +8599,11 @@
         <f t="shared" si="14"/>
         <v>0.3859860335296233</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R118" s="28">
+        <v>3.1790022823606301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="20">
         <v>2015</v>
       </c>
@@ -8288,8 +8662,11 @@
         <f t="shared" si="14"/>
         <v>0.37752356752506527</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R119" s="28">
+        <v>3.76836783062096</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>2016</v>
       </c>
@@ -8348,8 +8725,11 @@
         <f t="shared" si="14"/>
         <v>0.37744436207135013</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R120" s="28">
+        <v>3.9588884659307002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
         <v>2017</v>
       </c>
@@ -8408,8 +8788,11 @@
         <f t="shared" si="14"/>
         <v>0.38558957425768914</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R121" s="28">
+        <v>7.7041376785060498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
         <v>2018</v>
       </c>
@@ -8468,8 +8851,11 @@
         <f t="shared" si="14"/>
         <v>0.376488834766882</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R122" s="28">
+        <v>2.13503773713198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
         <v>2019</v>
       </c>
@@ -8528,8 +8914,11 @@
         <f t="shared" si="14"/>
         <v>0.36447256570744524</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R123" s="28">
+        <v>3.5283935823180799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>2020</v>
       </c>
@@ -8588,8 +8977,11 @@
         <f t="shared" si="14"/>
         <v>0.36044980400985455</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R124" s="28">
+        <v>6.1539450839174297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="20">
         <v>2021</v>
       </c>
@@ -8646,6 +9038,12 @@
         <f t="shared" si="14"/>
         <v>0.38495970358075138</v>
       </c>
+      <c r="R125" s="28">
+        <v>7.01478071238187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R126" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8655,10 +9053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C39F97-2DD2-4EEB-AC13-2A27AE6C9036}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8670,6 +9068,7 @@
     <col min="5" max="5" width="10.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -10702,15 +11101,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBF48C8-C566-460F-85A6-1B167CA48D35}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10725,9 +11125,13 @@
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="14" width="9.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10755,8 +11159,11 @@
       <c r="I1" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2007</v>
       </c>
@@ -10793,8 +11200,20 @@
         <v>152385716311.91638</v>
       </c>
       <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="25">
+        <f>E2/G2</f>
+        <v>0.67375595087562756</v>
+      </c>
+      <c r="L2" s="25">
+        <f>D2/G2</f>
+        <v>0.6471278875626193</v>
+      </c>
+      <c r="N2" s="25">
+        <f t="shared" ref="N2:N11" si="0">C2/F2</f>
+        <v>1.1021147919082956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2008</v>
       </c>
@@ -10831,8 +11250,24 @@
         <v>170077814106.3049</v>
       </c>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="25">
+        <f t="shared" ref="K3:K12" si="1">E3/G3</f>
+        <v>0.68239648771434924</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" ref="L3:L12" si="2">D3/G3</f>
+        <v>0.647211845890454</v>
+      </c>
+      <c r="N3" s="25">
+        <f t="shared" si="0"/>
+        <v>0.97611298167509775</v>
+      </c>
+      <c r="P3" s="25">
+        <f>F3/F2-1</f>
+        <v>0.2932420117227541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2009</v>
       </c>
@@ -10869,8 +11304,24 @@
         <v>168152775283.03162</v>
       </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="25">
+        <f t="shared" si="1"/>
+        <v>0.82342362757586374</v>
+      </c>
+      <c r="L4" s="25">
+        <f t="shared" si="2"/>
+        <v>0.77556045152862541</v>
+      </c>
+      <c r="N4" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2419001309739999</v>
+      </c>
+      <c r="P4" s="25">
+        <f t="shared" ref="P4:P12" si="3">F4/F3-1</f>
+        <v>2.386446622074434E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2010</v>
       </c>
@@ -10907,8 +11358,24 @@
         <v>177165635077.06534</v>
       </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="25">
+        <f t="shared" si="1"/>
+        <v>0.8682691416007412</v>
+      </c>
+      <c r="L5" s="25">
+        <f t="shared" si="2"/>
+        <v>0.79993477071898023</v>
+      </c>
+      <c r="N5" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1233774050818974</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" si="3"/>
+        <v>0.21188356797999885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2011</v>
       </c>
@@ -10945,8 +11412,24 @@
         <v>213587413183.99557</v>
       </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="25">
+        <f t="shared" si="1"/>
+        <v>0.68968261236390183</v>
+      </c>
+      <c r="L6" s="25">
+        <f t="shared" si="2"/>
+        <v>0.63736603815487602</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0974360932087799</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="3"/>
+        <v>0.211165218906193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2012</v>
       </c>
@@ -10983,8 +11466,24 @@
         <v>224383620829.56964</v>
       </c>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.64668307668131442</v>
+      </c>
+      <c r="L7" s="25">
+        <f t="shared" si="2"/>
+        <v>0.59765139697609648</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3904468185931267</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="3"/>
+        <v>4.7135463482585793E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2013</v>
       </c>
@@ -11021,8 +11520,24 @@
         <v>231218567178.97867</v>
       </c>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="25">
+        <f t="shared" si="1"/>
+        <v>0.59552605506277179</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" si="2"/>
+        <v>0.54843842193170556</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3804792097916234</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="3"/>
+        <v>8.8531747942417249E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -11059,8 +11574,24 @@
         <v>244360888750.80704</v>
       </c>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="25">
+        <f t="shared" si="1"/>
+        <v>0.67329690925156038</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="2"/>
+        <v>0.552225499713349</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4284326069125424</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="3"/>
+        <v>6.8422551470095128E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2015</v>
       </c>
@@ -11097,8 +11628,24 @@
         <v>270556131701.17093</v>
       </c>
       <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="25">
+        <f t="shared" si="1"/>
+        <v>0.67119781077086249</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.53945435286608479</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4504378030859488</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="3"/>
+        <v>9.0366687568370629E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2016</v>
       </c>
@@ -11135,8 +11682,24 @@
         <v>313629858859.58698</v>
       </c>
       <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="25">
+        <f t="shared" si="1"/>
+        <v>0.72712458723880402</v>
+      </c>
+      <c r="L11" s="25">
+        <f t="shared" si="2"/>
+        <v>0.53102653342741002</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4810015019856413</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="3"/>
+        <v>3.3507179080663807E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2017</v>
       </c>
@@ -11173,6 +11736,26 @@
         <v>339205615769.18677</v>
       </c>
       <c r="J12" s="7"/>
+      <c r="K12" s="25">
+        <f t="shared" si="1"/>
+        <v>0.7969329364103005</v>
+      </c>
+      <c r="L12" s="25">
+        <f t="shared" si="2"/>
+        <v>0.59359260387744084</v>
+      </c>
+      <c r="N12" s="25">
+        <f>C12/F12</f>
+        <v>1.456144493349085</v>
+      </c>
+      <c r="O12" s="7">
+        <f>(C12+1100000000)/F12 * 0.37*4</f>
+        <v>2.1998308047971498</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" si="3"/>
+        <v>9.5448226248855628E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11185,8 +11768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BBECB-781C-41CE-A544-10F85ADA77DD}">
   <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
